--- a/biology/Botanique/Ruché/Ruché.xlsx
+++ b/biology/Botanique/Ruché/Ruché.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9</t>
+          <t>Ruché</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le ruché N[N 1] est un cépage noir de cuve de l'Italie, spécialement du Piémont.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9</t>
+          <t>Ruché</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,10 +524,12 @@
           <t>Origine et répartition géographique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce serait un cépage en provenance de Bourgogne mais la variété initiale est inconnue.
-Il est classé cépage d'appoint en DOCG[1] Ruché di Castagnole Monferrato.
+Il est classé cépage d'appoint en DOCG Ruché di Castagnole Monferrato.
 En 1990, il couvrait 107 ha.
 Le ruché donne des vins d'un rouge rubis pas trop foncé, avec de légers reflets violacés. Ils sont légèrement parfumés et fruités.
 </t>
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Ruch%C3%A9</t>
+          <t>Ruché</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Le ruché est connu sous les noms de rochè, rouche, rouchet, ruchè.
 </t>
